--- a/dmsan/newgen/scores/India/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/India/sys_uncertainties.xlsx
@@ -62845,7 +62845,7 @@
         <v>43.52572281489022</v>
       </c>
       <c r="I15" t="n">
-        <v>16.81816609220448</v>
+        <v>16.81816609220447</v>
       </c>
     </row>
     <row r="16">

--- a/dmsan/newgen/scores/India/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/India/sys_uncertainties.xlsx
@@ -32782,16 +32782,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1679218236937653</v>
+        <v>0.1673267629091877</v>
       </c>
       <c r="G4" t="n">
-        <v>7.011589532196542</v>
+        <v>7.005656807552322</v>
       </c>
       <c r="H4" t="n">
-        <v>9.665213314615441</v>
+        <v>9.63701760466048</v>
       </c>
       <c r="I4" t="n">
-        <v>77.29038054648493</v>
+        <v>77.10231220554201</v>
       </c>
     </row>
     <row r="5">
@@ -32811,16 +32811,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3443063900845015</v>
+        <v>0.3433244137535294</v>
       </c>
       <c r="G5" t="n">
-        <v>12.51134270073214</v>
+        <v>12.49976308290482</v>
       </c>
       <c r="H5" t="n">
-        <v>17.4352931359532</v>
+        <v>17.38917969822811</v>
       </c>
       <c r="I5" t="n">
-        <v>164.6558944662828</v>
+        <v>164.2512833615491</v>
       </c>
     </row>
     <row r="6">
@@ -32840,16 +32840,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2503006274160324</v>
+        <v>0.2496400047264241</v>
       </c>
       <c r="G6" t="n">
-        <v>20.38234171206786</v>
+        <v>20.37483425932886</v>
       </c>
       <c r="H6" t="n">
-        <v>13.60342645647858</v>
+        <v>13.57003915100669</v>
       </c>
       <c r="I6" t="n">
-        <v>127.838346497347</v>
+        <v>127.5474627727372</v>
       </c>
     </row>
     <row r="7">
@@ -32857,28 +32857,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>47.94930537701744</v>
+        <v>47.94930537701743</v>
       </c>
       <c r="C7" t="n">
-        <v>34.62310540872991</v>
+        <v>34.6231054087299</v>
       </c>
       <c r="D7" t="n">
-        <v>22.69156569585458</v>
+        <v>22.69156569585456</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2141700137654805</v>
+        <v>0.2138062456373709</v>
       </c>
       <c r="G7" t="n">
-        <v>9.290842283355181</v>
+        <v>9.287194905457968</v>
       </c>
       <c r="H7" t="n">
-        <v>10.04082104281186</v>
+        <v>10.02626123855896</v>
       </c>
       <c r="I7" t="n">
-        <v>107.7358237983164</v>
+        <v>107.5970937956521</v>
       </c>
     </row>
     <row r="8">
@@ -32886,28 +32886,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.60173024356419</v>
+        <v>42.60173024356421</v>
       </c>
       <c r="C8" t="n">
-        <v>38.65384986942031</v>
+        <v>38.65384986942032</v>
       </c>
       <c r="D8" t="n">
-        <v>18.59519191356933</v>
+        <v>18.59519191356934</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1381032377363534</v>
+        <v>0.137125300980311</v>
       </c>
       <c r="G8" t="n">
-        <v>13.61715624161031</v>
+        <v>13.60667595470096</v>
       </c>
       <c r="H8" t="n">
-        <v>7.722548098130747</v>
+        <v>7.67535604900431</v>
       </c>
       <c r="I8" t="n">
-        <v>69.81633255238303</v>
+        <v>69.4568060073502</v>
       </c>
     </row>
     <row r="9">
@@ -32927,16 +32927,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2451763874982701</v>
+        <v>0.2440856604046782</v>
       </c>
       <c r="G9" t="n">
-        <v>12.40779021753132</v>
+        <v>12.39704617783971</v>
       </c>
       <c r="H9" t="n">
-        <v>10.76567746277102</v>
+        <v>10.72175618688511</v>
       </c>
       <c r="I9" t="n">
-        <v>101.7392455331526</v>
+        <v>101.3666836558218</v>
       </c>
     </row>
     <row r="10">
@@ -32956,16 +32956,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1748213030511304</v>
+        <v>0.1740719183431741</v>
       </c>
       <c r="G10" t="n">
-        <v>11.05827406903856</v>
+        <v>11.04993168453658</v>
       </c>
       <c r="H10" t="n">
-        <v>9.576424570537821</v>
+        <v>9.539112422944109</v>
       </c>
       <c r="I10" t="n">
-        <v>82.11220920955202</v>
+        <v>81.83335001555618</v>
       </c>
     </row>
     <row r="11">
@@ -32985,16 +32985,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3955650009485537</v>
+        <v>0.3951594754051871</v>
       </c>
       <c r="G11" t="n">
-        <v>17.32993540767463</v>
+        <v>17.3253542623659</v>
       </c>
       <c r="H11" t="n">
-        <v>20.83495834221438</v>
+        <v>20.81610328709847</v>
       </c>
       <c r="I11" t="n">
-        <v>213.2722555567912</v>
+        <v>213.0910374383307</v>
       </c>
     </row>
     <row r="12">
@@ -33002,28 +33002,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.30643100985263</v>
+        <v>43.30643100985262</v>
       </c>
       <c r="C12" t="n">
-        <v>30.33755581643491</v>
+        <v>30.3375558164349</v>
       </c>
       <c r="D12" t="n">
-        <v>20.20110697757862</v>
+        <v>20.20110697757861</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1897758803711037</v>
+        <v>0.1889071678468516</v>
       </c>
       <c r="G12" t="n">
-        <v>11.59230813256016</v>
+        <v>11.5836400797697</v>
       </c>
       <c r="H12" t="n">
-        <v>9.085591721912456</v>
+        <v>9.047539705692049</v>
       </c>
       <c r="I12" t="n">
-        <v>83.08612778358852</v>
+        <v>82.78237365182584</v>
       </c>
     </row>
     <row r="13">
@@ -33034,25 +33034,25 @@
         <v>54.87065386938279</v>
       </c>
       <c r="C13" t="n">
-        <v>44.80095247574663</v>
+        <v>44.80095247574664</v>
       </c>
       <c r="D13" t="n">
-        <v>28.26690038079896</v>
+        <v>28.26690038079897</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2486105604128867</v>
+        <v>0.2478502079081503</v>
       </c>
       <c r="G13" t="n">
-        <v>15.45172425702986</v>
+        <v>15.44410107904153</v>
       </c>
       <c r="H13" t="n">
-        <v>12.52259698294324</v>
+        <v>12.48799008598393</v>
       </c>
       <c r="I13" t="n">
-        <v>101.3756521076137</v>
+        <v>101.1244470710999</v>
       </c>
     </row>
     <row r="14">
@@ -33060,7 +33060,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.46532320724241</v>
+        <v>55.4653232072424</v>
       </c>
       <c r="C14" t="n">
         <v>27.19504871268291</v>
@@ -33072,16 +33072,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2757101151979853</v>
+        <v>0.2752784000207838</v>
       </c>
       <c r="G14" t="n">
-        <v>8.167171947013333</v>
+        <v>8.162174615157049</v>
       </c>
       <c r="H14" t="n">
-        <v>13.54584665187604</v>
+        <v>13.52628742551908</v>
       </c>
       <c r="I14" t="n">
-        <v>111.940743122495</v>
+        <v>111.7947045619168</v>
       </c>
     </row>
     <row r="15">
@@ -33101,16 +33101,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1701854033214273</v>
+        <v>0.1696119353002949</v>
       </c>
       <c r="G15" t="n">
-        <v>11.61503396973361</v>
+        <v>11.60756180755816</v>
       </c>
       <c r="H15" t="n">
-        <v>9.926171805596052</v>
+        <v>9.897730788190522</v>
       </c>
       <c r="I15" t="n">
-        <v>109.9978012556723</v>
+        <v>109.7137013472707</v>
       </c>
     </row>
     <row r="16">
@@ -33130,16 +33130,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2537506729933918</v>
+        <v>0.2532588842513162</v>
       </c>
       <c r="G16" t="n">
-        <v>15.5141679521905</v>
+        <v>15.50823561328859</v>
       </c>
       <c r="H16" t="n">
-        <v>12.02568160484332</v>
+        <v>12.00363489516496</v>
       </c>
       <c r="I16" t="n">
-        <v>132.8920721112655</v>
+        <v>132.6631756955583</v>
       </c>
     </row>
     <row r="17">
@@ -33147,7 +33147,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>55.07891298148814</v>
+        <v>55.07891298148816</v>
       </c>
       <c r="C17" t="n">
         <v>33.88349964068711</v>
@@ -33159,16 +33159,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2826156560105778</v>
+        <v>0.2822396583443674</v>
       </c>
       <c r="G17" t="n">
-        <v>10.9044446948855</v>
+        <v>10.90020382620959</v>
       </c>
       <c r="H17" t="n">
-        <v>14.88773031751695</v>
+        <v>14.86966117849182</v>
       </c>
       <c r="I17" t="n">
-        <v>109.5965479449842</v>
+        <v>109.4774010177757</v>
       </c>
     </row>
     <row r="18">
@@ -33188,16 +33188,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1943633216409392</v>
+        <v>0.1938521733779911</v>
       </c>
       <c r="G18" t="n">
-        <v>7.07063054146216</v>
+        <v>7.064949695535772</v>
       </c>
       <c r="H18" t="n">
-        <v>10.77441598961965</v>
+        <v>10.75061748937697</v>
       </c>
       <c r="I18" t="n">
-        <v>86.10648889151037</v>
+        <v>85.93981261078513</v>
       </c>
     </row>
     <row r="19">
@@ -33205,28 +33205,28 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.89239287562933</v>
+        <v>60.89239287562935</v>
       </c>
       <c r="C19" t="n">
-        <v>26.87044643376963</v>
+        <v>26.87044643376965</v>
       </c>
       <c r="D19" t="n">
-        <v>25.28913560464803</v>
+        <v>25.28913560464804</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2079265236189957</v>
+        <v>0.2073053196569334</v>
       </c>
       <c r="G19" t="n">
-        <v>20.60774950595318</v>
+        <v>20.60011873855987</v>
       </c>
       <c r="H19" t="n">
-        <v>11.85147163627376</v>
+        <v>11.81902800812851</v>
       </c>
       <c r="I19" t="n">
-        <v>94.10142156606049</v>
+        <v>93.87423897424306</v>
       </c>
     </row>
     <row r="20">
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.84956861135946</v>
+        <v>55.84956861135944</v>
       </c>
       <c r="C20" t="n">
-        <v>46.73726131973289</v>
+        <v>46.73726131973287</v>
       </c>
       <c r="D20" t="n">
-        <v>22.85379253622357</v>
+        <v>22.85379253622355</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.187742307173411</v>
+        <v>0.1869227894293009</v>
       </c>
       <c r="G20" t="n">
-        <v>18.19203487503738</v>
+        <v>18.18314031467765</v>
       </c>
       <c r="H20" t="n">
-        <v>9.19126054735781</v>
+        <v>9.155732194922946</v>
       </c>
       <c r="I20" t="n">
-        <v>84.02403111403819</v>
+        <v>83.74195478664082</v>
       </c>
     </row>
     <row r="21">
@@ -33263,28 +33263,28 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.71301533696912</v>
+        <v>66.71301533696909</v>
       </c>
       <c r="C21" t="n">
-        <v>58.25125478708514</v>
+        <v>58.25125478708512</v>
       </c>
       <c r="D21" t="n">
-        <v>34.58326537773716</v>
+        <v>34.58326537773715</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.294838788441614</v>
+        <v>0.2940212915541193</v>
       </c>
       <c r="G21" t="n">
-        <v>18.44359796233262</v>
+        <v>18.43368089214243</v>
       </c>
       <c r="H21" t="n">
-        <v>15.05523971947865</v>
+        <v>15.01672966669715</v>
       </c>
       <c r="I21" t="n">
-        <v>116.0857896669283</v>
+        <v>115.8172623856441</v>
       </c>
     </row>
     <row r="22">
@@ -33304,16 +33304,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1481816483963995</v>
+        <v>0.1473608209515954</v>
       </c>
       <c r="G22" t="n">
-        <v>12.06386206277277</v>
+        <v>12.05478969280002</v>
       </c>
       <c r="H22" t="n">
-        <v>9.065559054709754</v>
+        <v>9.022042101047711</v>
       </c>
       <c r="I22" t="n">
-        <v>84.34013411692901</v>
+        <v>83.98636671954203</v>
       </c>
     </row>
     <row r="23">
@@ -33333,16 +33333,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2457610648245158</v>
+        <v>0.2452322645029968</v>
       </c>
       <c r="G23" t="n">
-        <v>17.29636799039274</v>
+        <v>17.29045065596407</v>
       </c>
       <c r="H23" t="n">
-        <v>11.32400361383354</v>
+        <v>11.30113930986848</v>
       </c>
       <c r="I23" t="n">
-        <v>115.9734195771383</v>
+        <v>115.7589653322125</v>
       </c>
     </row>
   </sheetData>
@@ -64365,16 +64365,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2125581741704291</v>
+        <v>0.2119631133858515</v>
       </c>
       <c r="G4" t="n">
-        <v>7.812077917357394</v>
+        <v>7.806145192713173</v>
       </c>
       <c r="H4" t="n">
-        <v>10.22925735698278</v>
+        <v>10.20106164702782</v>
       </c>
       <c r="I4" t="n">
-        <v>76.86919951017437</v>
+        <v>76.68113116923146</v>
       </c>
     </row>
     <row r="5">
@@ -64394,16 +64394,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3854778965327397</v>
+        <v>0.3844959202017676</v>
       </c>
       <c r="G5" t="n">
-        <v>13.40076780401209</v>
+        <v>13.38918818618477</v>
       </c>
       <c r="H5" t="n">
-        <v>17.97869877751034</v>
+        <v>17.93258533978525</v>
       </c>
       <c r="I5" t="n">
-        <v>164.4249879984214</v>
+        <v>164.0203768936877</v>
       </c>
     </row>
     <row r="6">
@@ -64423,16 +64423,16 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.294550330997859</v>
+        <v>0.2938897083082507</v>
       </c>
       <c r="G6" t="n">
-        <v>21.15517801395286</v>
+        <v>21.14767056121386</v>
       </c>
       <c r="H6" t="n">
-        <v>14.13577274751821</v>
+        <v>14.10238544204632</v>
       </c>
       <c r="I6" t="n">
-        <v>127.8359246298578</v>
+        <v>127.545040905248</v>
       </c>
     </row>
     <row r="7">
@@ -64440,28 +64440,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>47.94930537701744</v>
+        <v>47.94930537701743</v>
       </c>
       <c r="C7" t="n">
-        <v>34.62310540872991</v>
+        <v>34.6231054087299</v>
       </c>
       <c r="D7" t="n">
-        <v>22.69156569585458</v>
+        <v>22.69156569585456</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2555118517185314</v>
+        <v>0.2551480835904217</v>
       </c>
       <c r="G7" t="n">
-        <v>10.21621892999794</v>
+        <v>10.21257155210072</v>
       </c>
       <c r="H7" t="n">
-        <v>10.58065223555739</v>
+        <v>10.56609243130449</v>
       </c>
       <c r="I7" t="n">
-        <v>107.5256263451772</v>
+        <v>107.3868963425129</v>
       </c>
     </row>
     <row r="8">
@@ -64469,28 +64469,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.60173024356419</v>
+        <v>42.60173024356421</v>
       </c>
       <c r="C8" t="n">
-        <v>38.65384986942031</v>
+        <v>38.65384986942032</v>
       </c>
       <c r="D8" t="n">
-        <v>18.59519191356933</v>
+        <v>18.59519191356934</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1820713461635679</v>
+        <v>0.1810934094075255</v>
       </c>
       <c r="G8" t="n">
-        <v>14.48560881792881</v>
+        <v>14.47512853101947</v>
       </c>
       <c r="H8" t="n">
-        <v>8.298394023874227</v>
+        <v>8.25120197474779</v>
       </c>
       <c r="I8" t="n">
-        <v>69.34278452492418</v>
+        <v>68.98325797989135</v>
       </c>
     </row>
     <row r="9">
@@ -64510,16 +64510,16 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.284951825018939</v>
+        <v>0.2838610979253471</v>
       </c>
       <c r="G9" t="n">
-        <v>13.27014807158721</v>
+        <v>13.2594040318956</v>
       </c>
       <c r="H9" t="n">
-        <v>11.2600561753228</v>
+        <v>11.21613489943689</v>
       </c>
       <c r="I9" t="n">
-        <v>101.3947919528363</v>
+        <v>101.0222300755054</v>
       </c>
     </row>
     <row r="10">
@@ -64539,16 +64539,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.218765286626474</v>
+        <v>0.2180159019185177</v>
       </c>
       <c r="G10" t="n">
-        <v>11.84026254625522</v>
+        <v>11.83192016175324</v>
       </c>
       <c r="H10" t="n">
-        <v>10.12393517617903</v>
+        <v>10.08662302858532</v>
       </c>
       <c r="I10" t="n">
-        <v>82.137891077183</v>
+        <v>81.85903188318716</v>
       </c>
     </row>
     <row r="11">
@@ -64568,16 +64568,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4393785476668718</v>
+        <v>0.4389730221235053</v>
       </c>
       <c r="G11" t="n">
-        <v>18.1675821327864</v>
+        <v>18.16300098747767</v>
       </c>
       <c r="H11" t="n">
-        <v>21.42854453329194</v>
+        <v>21.40968947817603</v>
       </c>
       <c r="I11" t="n">
-        <v>213.1680688104834</v>
+        <v>212.9868506920229</v>
       </c>
     </row>
     <row r="12">
@@ -64585,28 +64585,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.30643100985263</v>
+        <v>43.30643100985262</v>
       </c>
       <c r="C12" t="n">
-        <v>30.33755581643491</v>
+        <v>30.3375558164349</v>
       </c>
       <c r="D12" t="n">
-        <v>20.20110697757862</v>
+        <v>20.20110697757861</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.231871256804194</v>
+        <v>0.2310025442799419</v>
       </c>
       <c r="G12" t="n">
-        <v>12.36361590139867</v>
+        <v>12.35494784860822</v>
       </c>
       <c r="H12" t="n">
-        <v>9.636919731547863</v>
+        <v>9.598867715327454</v>
       </c>
       <c r="I12" t="n">
-        <v>82.78531826298155</v>
+        <v>82.4815641312188</v>
       </c>
     </row>
     <row r="13">
@@ -64617,25 +64617,25 @@
         <v>54.87065386938279</v>
       </c>
       <c r="C13" t="n">
-        <v>44.80095247574663</v>
+        <v>44.80095247574664</v>
       </c>
       <c r="D13" t="n">
-        <v>28.26690038079896</v>
+        <v>28.26690038079897</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2875359937973722</v>
+        <v>0.2867756412926357</v>
       </c>
       <c r="G13" t="n">
-        <v>16.29011144462372</v>
+        <v>16.2824882666354</v>
       </c>
       <c r="H13" t="n">
-        <v>13.02337410510719</v>
+        <v>12.98876720814789</v>
       </c>
       <c r="I13" t="n">
-        <v>101.1132510161415</v>
+        <v>100.8620459796277</v>
       </c>
     </row>
     <row r="14">
@@ -64643,7 +64643,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.46532320724241</v>
+        <v>55.4653232072424</v>
       </c>
       <c r="C14" t="n">
         <v>27.19504871268291</v>
@@ -64655,16 +64655,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.3198000022891038</v>
+        <v>0.3193682871119023</v>
       </c>
       <c r="G14" t="n">
-        <v>9.034117010751539</v>
+        <v>9.029119678895254</v>
       </c>
       <c r="H14" t="n">
-        <v>14.09785314738734</v>
+        <v>14.07829392103038</v>
       </c>
       <c r="I14" t="n">
-        <v>111.9422616568255</v>
+        <v>111.7962230962473</v>
       </c>
     </row>
     <row r="15">
@@ -64684,16 +64684,16 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2118567121117872</v>
+        <v>0.2112832440906549</v>
       </c>
       <c r="G15" t="n">
-        <v>12.48923322431256</v>
+        <v>12.4817610621371</v>
       </c>
       <c r="H15" t="n">
-        <v>10.45876204461223</v>
+        <v>10.4303210272067</v>
       </c>
       <c r="I15" t="n">
-        <v>109.9067623724065</v>
+        <v>109.6226624640049</v>
       </c>
     </row>
     <row r="16">
@@ -64713,16 +64713,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2947889616464987</v>
+        <v>0.2942971729044231</v>
       </c>
       <c r="G16" t="n">
-        <v>16.30848479057581</v>
+        <v>16.3025524516739</v>
       </c>
       <c r="H16" t="n">
-        <v>12.5653321150565</v>
+        <v>12.54328540537814</v>
       </c>
       <c r="I16" t="n">
-        <v>132.6833749479665</v>
+        <v>132.4544785322594</v>
       </c>
     </row>
     <row r="17">
@@ -64730,7 +64730,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="n">
-        <v>55.07891298148814</v>
+        <v>55.07891298148816</v>
       </c>
       <c r="C17" t="n">
         <v>33.88349964068711</v>
@@ -64742,16 +64742,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.3228900479791935</v>
+        <v>0.3225140503129832</v>
       </c>
       <c r="G17" t="n">
-        <v>11.78637687285153</v>
+        <v>11.78213600417563</v>
       </c>
       <c r="H17" t="n">
-        <v>15.3988051375886</v>
+        <v>15.38073599856348</v>
       </c>
       <c r="I17" t="n">
-        <v>109.2601192021073</v>
+        <v>109.1409722748988</v>
       </c>
     </row>
     <row r="18">
@@ -64771,16 +64771,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2364703198033561</v>
+        <v>0.2359591715404079</v>
       </c>
       <c r="G18" t="n">
-        <v>7.995284733722182</v>
+        <v>7.989603887795794</v>
       </c>
       <c r="H18" t="n">
-        <v>11.2898416817308</v>
+        <v>11.26604318148811</v>
       </c>
       <c r="I18" t="n">
-        <v>85.93250002794852</v>
+        <v>85.76582374722328</v>
       </c>
     </row>
     <row r="19">
@@ -64788,28 +64788,28 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.89239287562933</v>
+        <v>60.89239287562935</v>
       </c>
       <c r="C19" t="n">
-        <v>26.87044643376963</v>
+        <v>26.87044643376965</v>
       </c>
       <c r="D19" t="n">
-        <v>25.28913560464803</v>
+        <v>25.28913560464804</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2473087786022611</v>
+        <v>0.2466875746401987</v>
       </c>
       <c r="G19" t="n">
-        <v>21.3708444647001</v>
+        <v>21.36321369730678</v>
       </c>
       <c r="H19" t="n">
-        <v>12.41980761471847</v>
+        <v>12.38736398657322</v>
       </c>
       <c r="I19" t="n">
-        <v>93.76396383737095</v>
+        <v>93.53678124555353</v>
       </c>
     </row>
     <row r="20">
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.84956861135946</v>
+        <v>55.84956861135944</v>
       </c>
       <c r="C20" t="n">
-        <v>46.73726131973289</v>
+        <v>46.73726131973287</v>
       </c>
       <c r="D20" t="n">
-        <v>22.85379253622357</v>
+        <v>22.85379253622355</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2329608323058031</v>
+        <v>0.2321413145616929</v>
       </c>
       <c r="G20" t="n">
-        <v>19.1228954772493</v>
+        <v>19.11400091688957</v>
       </c>
       <c r="H20" t="n">
-        <v>9.734854004711853</v>
+        <v>9.699325652276986</v>
       </c>
       <c r="I20" t="n">
-        <v>83.67028903609079</v>
+        <v>83.3882127086934</v>
       </c>
     </row>
     <row r="21">
@@ -64846,28 +64846,28 @@
         <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>66.71301533696912</v>
+        <v>66.71301533696909</v>
       </c>
       <c r="C21" t="n">
-        <v>58.25125478708514</v>
+        <v>58.25125478708512</v>
       </c>
       <c r="D21" t="n">
-        <v>34.58326537773716</v>
+        <v>34.58326537773715</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.3392190876713348</v>
+        <v>0.33840159078384</v>
       </c>
       <c r="G21" t="n">
-        <v>19.26304994194153</v>
+        <v>19.25313287175134</v>
       </c>
       <c r="H21" t="n">
-        <v>15.53424333913757</v>
+        <v>15.49573328635606</v>
       </c>
       <c r="I21" t="n">
-        <v>116.0549200258853</v>
+        <v>115.7863927446011</v>
       </c>
     </row>
     <row r="22">
@@ -64887,16 +64887,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1871762731462662</v>
+        <v>0.1863554457014621</v>
       </c>
       <c r="G22" t="n">
-        <v>12.91295208556913</v>
+        <v>12.90387971559638</v>
       </c>
       <c r="H22" t="n">
-        <v>9.565313623820236</v>
+        <v>9.521796670158194</v>
       </c>
       <c r="I22" t="n">
-        <v>84.26538813086857</v>
+        <v>83.91162073348161</v>
       </c>
     </row>
     <row r="23">
@@ -64916,16 +64916,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2833754463609226</v>
+        <v>0.2828466460394036</v>
       </c>
       <c r="G23" t="n">
-        <v>18.11625042780531</v>
+        <v>18.11033309337664</v>
       </c>
       <c r="H23" t="n">
-        <v>11.83419361236604</v>
+        <v>11.81132930840099</v>
       </c>
       <c r="I23" t="n">
-        <v>115.4813886494349</v>
+        <v>115.2669344045091</v>
       </c>
     </row>
   </sheetData>

--- a/dmsan/newgen/scores/India/sys_uncertainties.xlsx
+++ b/dmsan/newgen/scores/India/sys_uncertainties.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-param" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysA-results" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-param" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="sysB-results" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -32770,13 +32770,13 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.66306222982484</v>
+        <v>46.66306222982486</v>
       </c>
       <c r="C4" t="n">
         <v>34.00412829462044</v>
       </c>
       <c r="D4" t="n">
-        <v>19.31676652990993</v>
+        <v>19.31676652990994</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -32788,10 +32788,10 @@
         <v>7.005656807552322</v>
       </c>
       <c r="H4" t="n">
-        <v>9.63701760466048</v>
+        <v>9.637017604660484</v>
       </c>
       <c r="I4" t="n">
-        <v>77.10231220554201</v>
+        <v>77.10231220554203</v>
       </c>
     </row>
     <row r="5">
@@ -32799,28 +32799,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.14490010155219</v>
+        <v>57.14490010155217</v>
       </c>
       <c r="C5" t="n">
-        <v>49.93446859001376</v>
+        <v>49.93446859001373</v>
       </c>
       <c r="D5" t="n">
-        <v>39.55085809691717</v>
+        <v>39.55085809691712</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3433244137535294</v>
+        <v>0.343324413753529</v>
       </c>
       <c r="G5" t="n">
-        <v>12.49976308290482</v>
+        <v>12.49976308290481</v>
       </c>
       <c r="H5" t="n">
-        <v>17.38917969822811</v>
+        <v>17.38917969822808</v>
       </c>
       <c r="I5" t="n">
-        <v>164.2512833615491</v>
+        <v>164.2512833615488</v>
       </c>
     </row>
     <row r="6">
@@ -32834,7 +32834,7 @@
         <v>37.41697507584842</v>
       </c>
       <c r="D6" t="n">
-        <v>30.06630927028798</v>
+        <v>30.06630927028797</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -32857,22 +32857,22 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>47.94930537701743</v>
+        <v>47.94930537701746</v>
       </c>
       <c r="C7" t="n">
-        <v>34.6231054087299</v>
+        <v>34.62310540872991</v>
       </c>
       <c r="D7" t="n">
-        <v>22.69156569585456</v>
+        <v>22.69156569585458</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2138062456373709</v>
+        <v>0.213806245637371</v>
       </c>
       <c r="G7" t="n">
-        <v>9.287194905457968</v>
+        <v>9.287194905457971</v>
       </c>
       <c r="H7" t="n">
         <v>10.02626123855896</v>
@@ -32886,28 +32886,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.60173024356421</v>
+        <v>42.60173024356419</v>
       </c>
       <c r="C8" t="n">
-        <v>38.65384986942032</v>
+        <v>38.65384986942033</v>
       </c>
       <c r="D8" t="n">
-        <v>18.59519191356934</v>
+        <v>18.59519191356935</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.137125300980311</v>
+        <v>0.1371253009803111</v>
       </c>
       <c r="G8" t="n">
         <v>13.60667595470096</v>
       </c>
       <c r="H8" t="n">
-        <v>7.67535604900431</v>
+        <v>7.675356049004314</v>
       </c>
       <c r="I8" t="n">
-        <v>69.4568060073502</v>
+        <v>69.45680600735022</v>
       </c>
     </row>
     <row r="9">
@@ -32915,28 +32915,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>48.02921269659062</v>
+        <v>48.02921269659056</v>
       </c>
       <c r="C9" t="n">
-        <v>47.1129756409205</v>
+        <v>47.11297564092043</v>
       </c>
       <c r="D9" t="n">
-        <v>27.74475876164259</v>
+        <v>27.7447587616425</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2440856604046782</v>
+        <v>0.2440856604046776</v>
       </c>
       <c r="G9" t="n">
         <v>12.39704617783971</v>
       </c>
       <c r="H9" t="n">
-        <v>10.72175618688511</v>
+        <v>10.72175618688508</v>
       </c>
       <c r="I9" t="n">
-        <v>101.3666836558218</v>
+        <v>101.3666836558215</v>
       </c>
     </row>
     <row r="10">
@@ -32944,28 +32944,28 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>42.16507362054844</v>
+        <v>42.16507362054838</v>
       </c>
       <c r="C10" t="n">
-        <v>28.73011278297922</v>
+        <v>28.73011278297916</v>
       </c>
       <c r="D10" t="n">
-        <v>22.42036108942226</v>
+        <v>22.42036108942219</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1740719183431741</v>
+        <v>0.1740719183431735</v>
       </c>
       <c r="G10" t="n">
         <v>11.04993168453658</v>
       </c>
       <c r="H10" t="n">
-        <v>9.539112422944109</v>
+        <v>9.539112422944077</v>
       </c>
       <c r="I10" t="n">
-        <v>81.83335001555618</v>
+        <v>81.83335001555594</v>
       </c>
     </row>
     <row r="11">
@@ -32973,28 +32973,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.2394888066881</v>
+        <v>61.23948880668817</v>
       </c>
       <c r="C11" t="n">
-        <v>60.73702465916885</v>
+        <v>60.7370246591689</v>
       </c>
       <c r="D11" t="n">
-        <v>45.49877042498555</v>
+        <v>45.49877042498565</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.3951594754051871</v>
+        <v>0.395159475405188</v>
       </c>
       <c r="G11" t="n">
         <v>17.3253542623659</v>
       </c>
       <c r="H11" t="n">
-        <v>20.81610328709847</v>
+        <v>20.81610328709852</v>
       </c>
       <c r="I11" t="n">
-        <v>213.0910374383307</v>
+        <v>213.0910374383311</v>
       </c>
     </row>
     <row r="12">
@@ -33002,28 +33002,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.30643100985262</v>
+        <v>43.3064310098526</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3375558164349</v>
+        <v>30.33755581643484</v>
       </c>
       <c r="D12" t="n">
-        <v>20.20110697757861</v>
+        <v>20.20110697757856</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1889071678468516</v>
+        <v>0.1889071678468511</v>
       </c>
       <c r="G12" t="n">
         <v>11.5836400797697</v>
       </c>
       <c r="H12" t="n">
-        <v>9.047539705692049</v>
+        <v>9.047539705692024</v>
       </c>
       <c r="I12" t="n">
-        <v>82.78237365182584</v>
+        <v>82.78237365182564</v>
       </c>
     </row>
     <row r="13">
@@ -33031,28 +33031,28 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>54.87065386938279</v>
+        <v>54.87065386938281</v>
       </c>
       <c r="C13" t="n">
-        <v>44.80095247574664</v>
+        <v>44.80095247574666</v>
       </c>
       <c r="D13" t="n">
-        <v>28.26690038079897</v>
+        <v>28.26690038079898</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2478502079081503</v>
+        <v>0.2478502079081505</v>
       </c>
       <c r="G13" t="n">
         <v>15.44410107904153</v>
       </c>
       <c r="H13" t="n">
-        <v>12.48799008598393</v>
+        <v>12.48799008598394</v>
       </c>
       <c r="I13" t="n">
-        <v>101.1244470710999</v>
+        <v>101.1244470711</v>
       </c>
     </row>
     <row r="14">
@@ -33060,13 +33060,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.4653232072424</v>
+        <v>55.46532320724236</v>
       </c>
       <c r="C14" t="n">
         <v>27.19504871268291</v>
       </c>
       <c r="D14" t="n">
-        <v>26.96600372294303</v>
+        <v>26.96600372294302</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -33081,7 +33081,7 @@
         <v>13.52628742551908</v>
       </c>
       <c r="I14" t="n">
-        <v>111.7947045619168</v>
+        <v>111.7947045619169</v>
       </c>
     </row>
     <row r="15">
@@ -33089,28 +33089,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.31686862830838</v>
+        <v>46.31686862830839</v>
       </c>
       <c r="C15" t="n">
         <v>49.59609944037267</v>
       </c>
       <c r="D15" t="n">
-        <v>23.09361927125122</v>
+        <v>23.09361927125125</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1696119353002949</v>
+        <v>0.1696119353002951</v>
       </c>
       <c r="G15" t="n">
         <v>11.60756180755816</v>
       </c>
       <c r="H15" t="n">
-        <v>9.897730788190522</v>
+        <v>9.897730788190533</v>
       </c>
       <c r="I15" t="n">
-        <v>109.7137013472707</v>
+        <v>109.7137013472708</v>
       </c>
     </row>
     <row r="16">
@@ -33118,28 +33118,28 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.20554766129388</v>
+        <v>58.20554766129393</v>
       </c>
       <c r="C16" t="n">
-        <v>31.89969325565321</v>
+        <v>31.89969325565329</v>
       </c>
       <c r="D16" t="n">
-        <v>28.66737297578334</v>
+        <v>28.66737297578342</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2532588842513162</v>
+        <v>0.2532588842513169</v>
       </c>
       <c r="G16" t="n">
         <v>15.50823561328859</v>
       </c>
       <c r="H16" t="n">
-        <v>12.00363489516496</v>
+        <v>12.00363489516499</v>
       </c>
       <c r="I16" t="n">
-        <v>132.6631756955583</v>
+        <v>132.6631756955586</v>
       </c>
     </row>
     <row r="17">
@@ -33150,7 +33150,7 @@
         <v>55.07891298148816</v>
       </c>
       <c r="C17" t="n">
-        <v>33.88349964068711</v>
+        <v>33.88349964068712</v>
       </c>
       <c r="D17" t="n">
         <v>28.90576371475077</v>
@@ -33188,7 +33188,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1938521733779911</v>
+        <v>0.1938521733779913</v>
       </c>
       <c r="G18" t="n">
         <v>7.064949695535772</v>
@@ -33197,7 +33197,7 @@
         <v>10.75061748937697</v>
       </c>
       <c r="I18" t="n">
-        <v>85.93981261078513</v>
+        <v>85.93981261078517</v>
       </c>
     </row>
     <row r="19">
@@ -33205,13 +33205,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.89239287562935</v>
+        <v>60.89239287562931</v>
       </c>
       <c r="C19" t="n">
-        <v>26.87044643376965</v>
+        <v>26.87044643376964</v>
       </c>
       <c r="D19" t="n">
-        <v>25.28913560464804</v>
+        <v>25.28913560464803</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -33234,28 +33234,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.84956861135944</v>
+        <v>55.84956861135947</v>
       </c>
       <c r="C20" t="n">
-        <v>46.73726131973287</v>
+        <v>46.73726131973291</v>
       </c>
       <c r="D20" t="n">
-        <v>22.85379253622355</v>
+        <v>22.85379253622361</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1869227894293009</v>
+        <v>0.1869227894293014</v>
       </c>
       <c r="G20" t="n">
         <v>18.18314031467765</v>
       </c>
       <c r="H20" t="n">
-        <v>9.155732194922946</v>
+        <v>9.155732194922971</v>
       </c>
       <c r="I20" t="n">
-        <v>83.74195478664082</v>
+        <v>83.74195478664097</v>
       </c>
     </row>
     <row r="21">
@@ -33266,7 +33266,7 @@
         <v>66.71301533696909</v>
       </c>
       <c r="C21" t="n">
-        <v>58.25125478708512</v>
+        <v>58.25125478708513</v>
       </c>
       <c r="D21" t="n">
         <v>34.58326537773715</v>
@@ -33292,28 +33292,28 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.49799054577286</v>
+        <v>41.49799054577289</v>
       </c>
       <c r="C22" t="n">
-        <v>47.02974370591267</v>
+        <v>47.02974370591271</v>
       </c>
       <c r="D22" t="n">
-        <v>21.01581246696598</v>
+        <v>21.01581246696604</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1473608209515954</v>
+        <v>0.147360820951596</v>
       </c>
       <c r="G22" t="n">
         <v>12.05478969280002</v>
       </c>
       <c r="H22" t="n">
-        <v>9.022042101047711</v>
+        <v>9.022042101047743</v>
       </c>
       <c r="I22" t="n">
-        <v>83.98636671954203</v>
+        <v>83.98636671954232</v>
       </c>
     </row>
     <row r="23">
@@ -33321,7 +33321,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>50.23543324597</v>
+        <v>50.23543324596999</v>
       </c>
       <c r="C23" t="n">
         <v>53.25721472104399</v>
@@ -64353,19 +64353,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>46.66306222982484</v>
+        <v>46.66306222982486</v>
       </c>
       <c r="C4" t="n">
         <v>34.00412829462044</v>
       </c>
       <c r="D4" t="n">
-        <v>19.31676652990993</v>
+        <v>19.31676652990994</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2119631133858515</v>
+        <v>0.2119631133858516</v>
       </c>
       <c r="G4" t="n">
         <v>7.806145192713173</v>
@@ -64374,7 +64374,7 @@
         <v>10.20106164702782</v>
       </c>
       <c r="I4" t="n">
-        <v>76.68113116923146</v>
+        <v>76.68113116923149</v>
       </c>
     </row>
     <row r="5">
@@ -64382,28 +64382,28 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>57.14490010155219</v>
+        <v>57.14490010155217</v>
       </c>
       <c r="C5" t="n">
-        <v>49.93446859001376</v>
+        <v>49.93446859001373</v>
       </c>
       <c r="D5" t="n">
-        <v>39.55085809691717</v>
+        <v>39.55085809691712</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.3844959202017676</v>
+        <v>0.3844959202017671</v>
       </c>
       <c r="G5" t="n">
         <v>13.38918818618477</v>
       </c>
       <c r="H5" t="n">
-        <v>17.93258533978525</v>
+        <v>17.93258533978523</v>
       </c>
       <c r="I5" t="n">
-        <v>164.0203768936877</v>
+        <v>164.0203768936874</v>
       </c>
     </row>
     <row r="6">
@@ -64417,7 +64417,7 @@
         <v>37.41697507584842</v>
       </c>
       <c r="D6" t="n">
-        <v>30.06630927028798</v>
+        <v>30.06630927028797</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -64440,28 +64440,28 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>47.94930537701743</v>
+        <v>47.94930537701746</v>
       </c>
       <c r="C7" t="n">
-        <v>34.6231054087299</v>
+        <v>34.62310540872991</v>
       </c>
       <c r="D7" t="n">
-        <v>22.69156569585456</v>
+        <v>22.69156569585458</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2551480835904217</v>
+        <v>0.2551480835904218</v>
       </c>
       <c r="G7" t="n">
-        <v>10.21257155210072</v>
+        <v>10.21257155210073</v>
       </c>
       <c r="H7" t="n">
         <v>10.56609243130449</v>
       </c>
       <c r="I7" t="n">
-        <v>107.3868963425129</v>
+        <v>107.386896342513</v>
       </c>
     </row>
     <row r="8">
@@ -64469,28 +64469,28 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>42.60173024356421</v>
+        <v>42.60173024356419</v>
       </c>
       <c r="C8" t="n">
-        <v>38.65384986942032</v>
+        <v>38.65384986942033</v>
       </c>
       <c r="D8" t="n">
-        <v>18.59519191356934</v>
+        <v>18.59519191356935</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1810934094075255</v>
+        <v>0.1810934094075256</v>
       </c>
       <c r="G8" t="n">
-        <v>14.47512853101947</v>
+        <v>14.47512853101946</v>
       </c>
       <c r="H8" t="n">
-        <v>8.25120197474779</v>
+        <v>8.251201974747794</v>
       </c>
       <c r="I8" t="n">
-        <v>68.98325797989135</v>
+        <v>68.98325797989138</v>
       </c>
     </row>
     <row r="9">
@@ -64498,28 +64498,28 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>48.02921269659062</v>
+        <v>48.02921269659056</v>
       </c>
       <c r="C9" t="n">
-        <v>47.1129756409205</v>
+        <v>47.11297564092043</v>
       </c>
       <c r="D9" t="n">
-        <v>27.74475876164259</v>
+        <v>27.7447587616425</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2838610979253471</v>
+        <v>0.2838610979253464</v>
       </c>
       <c r="G9" t="n">
         <v>13.2594040318956</v>
       </c>
       <c r="H9" t="n">
-        <v>11.21613489943689</v>
+        <v>11.21613489943686</v>
       </c>
       <c r="I9" t="n">
-        <v>101.0222300755054</v>
+        <v>101.0222300755052</v>
       </c>
     </row>
     <row r="10">
@@ -64527,28 +64527,28 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>42.16507362054844</v>
+        <v>42.16507362054838</v>
       </c>
       <c r="C10" t="n">
-        <v>28.73011278297922</v>
+        <v>28.73011278297916</v>
       </c>
       <c r="D10" t="n">
-        <v>22.42036108942226</v>
+        <v>22.42036108942219</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2180159019185177</v>
+        <v>0.2180159019185171</v>
       </c>
       <c r="G10" t="n">
         <v>11.83192016175324</v>
       </c>
       <c r="H10" t="n">
-        <v>10.08662302858532</v>
+        <v>10.08662302858529</v>
       </c>
       <c r="I10" t="n">
-        <v>81.85903188318716</v>
+        <v>81.85903188318692</v>
       </c>
     </row>
     <row r="11">
@@ -64556,28 +64556,28 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>61.2394888066881</v>
+        <v>61.23948880668817</v>
       </c>
       <c r="C11" t="n">
-        <v>60.73702465916885</v>
+        <v>60.7370246591689</v>
       </c>
       <c r="D11" t="n">
-        <v>45.49877042498555</v>
+        <v>45.49877042498565</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4389730221235053</v>
+        <v>0.438973022123506</v>
       </c>
       <c r="G11" t="n">
         <v>18.16300098747767</v>
       </c>
       <c r="H11" t="n">
-        <v>21.40968947817603</v>
+        <v>21.40968947817607</v>
       </c>
       <c r="I11" t="n">
-        <v>212.9868506920229</v>
+        <v>212.9868506920233</v>
       </c>
     </row>
     <row r="12">
@@ -64585,28 +64585,28 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>43.30643100985262</v>
+        <v>43.3064310098526</v>
       </c>
       <c r="C12" t="n">
-        <v>30.3375558164349</v>
+        <v>30.33755581643484</v>
       </c>
       <c r="D12" t="n">
-        <v>20.20110697757861</v>
+        <v>20.20110697757856</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2310025442799419</v>
+        <v>0.2310025442799414</v>
       </c>
       <c r="G12" t="n">
         <v>12.35494784860822</v>
       </c>
       <c r="H12" t="n">
-        <v>9.598867715327454</v>
+        <v>9.59886771532743</v>
       </c>
       <c r="I12" t="n">
-        <v>82.4815641312188</v>
+        <v>82.48156413121863</v>
       </c>
     </row>
     <row r="13">
@@ -64614,19 +64614,19 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>54.87065386938279</v>
+        <v>54.87065386938281</v>
       </c>
       <c r="C13" t="n">
-        <v>44.80095247574664</v>
+        <v>44.80095247574666</v>
       </c>
       <c r="D13" t="n">
-        <v>28.26690038079897</v>
+        <v>28.26690038079898</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2867756412926357</v>
+        <v>0.286775641292636</v>
       </c>
       <c r="G13" t="n">
         <v>16.2824882666354</v>
@@ -64635,7 +64635,7 @@
         <v>12.98876720814789</v>
       </c>
       <c r="I13" t="n">
-        <v>100.8620459796277</v>
+        <v>100.8620459796278</v>
       </c>
     </row>
     <row r="14">
@@ -64643,13 +64643,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>55.4653232072424</v>
+        <v>55.46532320724236</v>
       </c>
       <c r="C14" t="n">
         <v>27.19504871268291</v>
       </c>
       <c r="D14" t="n">
-        <v>26.96600372294303</v>
+        <v>26.96600372294302</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -64672,28 +64672,28 @@
         <v>11</v>
       </c>
       <c r="B15" t="n">
-        <v>46.31686862830838</v>
+        <v>46.31686862830839</v>
       </c>
       <c r="C15" t="n">
         <v>49.59609944037267</v>
       </c>
       <c r="D15" t="n">
-        <v>23.09361927125122</v>
+        <v>23.09361927125125</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2112832440906549</v>
+        <v>0.211283244090655</v>
       </c>
       <c r="G15" t="n">
         <v>12.4817610621371</v>
       </c>
       <c r="H15" t="n">
-        <v>10.4303210272067</v>
+        <v>10.43032102720671</v>
       </c>
       <c r="I15" t="n">
-        <v>109.6226624640049</v>
+        <v>109.622662464005</v>
       </c>
     </row>
     <row r="16">
@@ -64701,28 +64701,28 @@
         <v>12</v>
       </c>
       <c r="B16" t="n">
-        <v>58.20554766129388</v>
+        <v>58.20554766129393</v>
       </c>
       <c r="C16" t="n">
-        <v>31.89969325565321</v>
+        <v>31.89969325565329</v>
       </c>
       <c r="D16" t="n">
-        <v>28.66737297578334</v>
+        <v>28.66737297578342</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2942971729044231</v>
+        <v>0.2942971729044238</v>
       </c>
       <c r="G16" t="n">
         <v>16.3025524516739</v>
       </c>
       <c r="H16" t="n">
-        <v>12.54328540537814</v>
+        <v>12.54328540537817</v>
       </c>
       <c r="I16" t="n">
-        <v>132.4544785322594</v>
+        <v>132.4544785322597</v>
       </c>
     </row>
     <row r="17">
@@ -64733,7 +64733,7 @@
         <v>55.07891298148816</v>
       </c>
       <c r="C17" t="n">
-        <v>33.88349964068711</v>
+        <v>33.88349964068712</v>
       </c>
       <c r="D17" t="n">
         <v>28.90576371475077</v>
@@ -64771,16 +64771,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2359591715404079</v>
+        <v>0.2359591715404081</v>
       </c>
       <c r="G18" t="n">
-        <v>7.989603887795794</v>
+        <v>7.989603887795795</v>
       </c>
       <c r="H18" t="n">
-        <v>11.26604318148811</v>
+        <v>11.26604318148812</v>
       </c>
       <c r="I18" t="n">
-        <v>85.76582374722328</v>
+        <v>85.76582374722334</v>
       </c>
     </row>
     <row r="19">
@@ -64788,13 +64788,13 @@
         <v>15</v>
       </c>
       <c r="B19" t="n">
-        <v>60.89239287562935</v>
+        <v>60.89239287562931</v>
       </c>
       <c r="C19" t="n">
-        <v>26.87044643376965</v>
+        <v>26.87044643376964</v>
       </c>
       <c r="D19" t="n">
-        <v>25.28913560464804</v>
+        <v>25.28913560464803</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -64817,28 +64817,28 @@
         <v>16</v>
       </c>
       <c r="B20" t="n">
-        <v>55.84956861135944</v>
+        <v>55.84956861135947</v>
       </c>
       <c r="C20" t="n">
-        <v>46.73726131973287</v>
+        <v>46.73726131973291</v>
       </c>
       <c r="D20" t="n">
-        <v>22.85379253622355</v>
+        <v>22.85379253622361</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.2321413145616929</v>
+        <v>0.2321413145616934</v>
       </c>
       <c r="G20" t="n">
         <v>19.11400091688957</v>
       </c>
       <c r="H20" t="n">
-        <v>9.699325652276986</v>
+        <v>9.699325652277013</v>
       </c>
       <c r="I20" t="n">
-        <v>83.3882127086934</v>
+        <v>83.38821270869362</v>
       </c>
     </row>
     <row r="21">
@@ -64849,7 +64849,7 @@
         <v>66.71301533696909</v>
       </c>
       <c r="C21" t="n">
-        <v>58.25125478708512</v>
+        <v>58.25125478708513</v>
       </c>
       <c r="D21" t="n">
         <v>34.58326537773715</v>
@@ -64875,28 +64875,28 @@
         <v>18</v>
       </c>
       <c r="B22" t="n">
-        <v>41.49799054577286</v>
+        <v>41.49799054577289</v>
       </c>
       <c r="C22" t="n">
-        <v>47.02974370591267</v>
+        <v>47.02974370591271</v>
       </c>
       <c r="D22" t="n">
-        <v>21.01581246696598</v>
+        <v>21.01581246696604</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1863554457014621</v>
+        <v>0.1863554457014626</v>
       </c>
       <c r="G22" t="n">
         <v>12.90387971559638</v>
       </c>
       <c r="H22" t="n">
-        <v>9.521796670158194</v>
+        <v>9.521796670158226</v>
       </c>
       <c r="I22" t="n">
-        <v>83.91162073348161</v>
+        <v>83.91162073348188</v>
       </c>
     </row>
     <row r="23">
@@ -64904,7 +64904,7 @@
         <v>19</v>
       </c>
       <c r="B23" t="n">
-        <v>50.23543324597</v>
+        <v>50.23543324596999</v>
       </c>
       <c r="C23" t="n">
         <v>53.25721472104399</v>
